--- a/ULTA.xlsx
+++ b/ULTA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC11195E-4DB1-4243-BD0D-4C83A277D349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE918750-2C86-4E7F-A573-0C6A7792AA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="345" windowWidth="22125" windowHeight="14250" activeTab="1" xr2:uid="{52031331-66DC-437A-A5A5-33A01B90D35F}"/>
+    <workbookView xWindow="2295" yWindow="285" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{52031331-66DC-437A-A5A5-33A01B90D35F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -782,10 +782,10 @@
   <dimension ref="A1:DK46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1051,44 +1051,44 @@
         <v>2808.6</v>
       </c>
       <c r="M6" s="1">
-        <f>L6*1.035</f>
-        <v>2906.9009999999998</v>
+        <f>L6*1.04</f>
+        <v>2920.944</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" ref="N6:V6" si="14">M6*1.035</f>
-        <v>3008.6425349999995</v>
+        <f t="shared" ref="N6:V6" si="14">M6*1.04</f>
+        <v>3037.7817599999998</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="14"/>
-        <v>3113.9450237249994</v>
+        <v>3159.2930304000001</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="14"/>
-        <v>3222.9330995553742</v>
+        <v>3285.6647516160001</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="14"/>
-        <v>3335.735758039812</v>
+        <v>3417.0913416806402</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="14"/>
-        <v>3452.4865095712053</v>
+        <v>3553.774995347866</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="14"/>
-        <v>3573.3235374061974</v>
+        <v>3695.925995161781</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="14"/>
-        <v>3698.3898612154139</v>
+        <v>3843.7630349682522</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="14"/>
-        <v>3827.833506357953</v>
+        <v>3997.5135563669824</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" si="14"/>
-        <v>3961.8076790804812</v>
+        <v>4157.4140986216617</v>
       </c>
     </row>
     <row r="7" spans="1:115" x14ac:dyDescent="0.2">
@@ -1125,23 +1125,23 @@
         <v>16.668144762879997</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" ref="R6:R7" si="16">Q7*1.04</f>
+        <f t="shared" ref="R7" si="16">Q7*1.04</f>
         <v>17.334870553395199</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" ref="S6:S7" si="17">R7*1.04</f>
+        <f t="shared" ref="S7" si="17">R7*1.04</f>
         <v>18.028265375531006</v>
       </c>
       <c r="T7" s="1">
-        <f t="shared" ref="T6:T7" si="18">S7*1.04</f>
+        <f t="shared" ref="T7" si="18">S7*1.04</f>
         <v>18.749395990552248</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" ref="U6:U7" si="19">T7*1.04</f>
+        <f t="shared" ref="U7" si="19">T7*1.04</f>
         <v>19.49937183017434</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" ref="V6:V7" si="20">U7*1.04</f>
+        <f t="shared" ref="V7" si="20">U7*1.04</f>
         <v>20.279346703381314</v>
       </c>
     </row>
@@ -1163,43 +1163,43 @@
       </c>
       <c r="M8" s="1">
         <f t="shared" ref="M8" si="22">SUM(M6:M7)</f>
-        <v>2921.1489999999999</v>
+        <v>2935.192</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ref="N8" si="23">SUM(N6:N7)</f>
-        <v>3023.4604549999995</v>
+        <v>3052.5996799999998</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ref="O8" si="24">SUM(O6:O7)</f>
-        <v>3129.3556605249992</v>
+        <v>3174.7036671999999</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ref="P8" si="25">SUM(P6:P7)</f>
-        <v>3238.9601618273741</v>
+        <v>3301.6918138880001</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" ref="Q8:V8" si="26">SUM(Q6:Q7)</f>
-        <v>3352.4039028026918</v>
+        <v>3433.75948644352</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="26"/>
-        <v>3469.8213801246006</v>
+        <v>3571.1098659012614</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="26"/>
-        <v>3591.3518027817286</v>
+        <v>3713.9542605373122</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="26"/>
-        <v>3717.1392572059663</v>
+        <v>3862.5124309588045</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="26"/>
-        <v>3847.3328781881273</v>
+        <v>4017.0129281971567</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" si="26"/>
-        <v>3982.0870257838624</v>
+        <v>4177.6934453250433</v>
       </c>
     </row>
     <row r="9" spans="1:115" x14ac:dyDescent="0.2">
@@ -1220,43 +1220,43 @@
       </c>
       <c r="M9" s="1">
         <f t="shared" si="27"/>
-        <v>1755.6640999999995</v>
+        <v>1741.6210999999994</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="27"/>
-        <v>1817.0411034999997</v>
+        <v>1787.9018784999994</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="27"/>
-        <v>1880.5634525224991</v>
+        <v>1835.2154458474984</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="27"/>
-        <v>1946.3061201767864</v>
+        <v>1883.5744681161605</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="27"/>
-        <v>2014.3466990716142</v>
+        <v>1932.9911154307861</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" ref="R9:V9" si="28">R5-R8</f>
-        <v>2084.7654928153056</v>
+        <v>1983.4770070386448</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="28"/>
-        <v>2157.6456107110748</v>
+        <v>2035.0431529554912</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="28"/>
-        <v>2233.0730657590834</v>
+        <v>2087.6998920062451</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="28"/>
-        <v>2311.136876080699</v>
+        <v>2141.4568260716696</v>
       </c>
       <c r="V9" s="1">
         <f t="shared" si="28"/>
-        <v>2391.9291698843726</v>
+        <v>2196.3227503431917</v>
       </c>
     </row>
     <row r="10" spans="1:115" x14ac:dyDescent="0.2">
@@ -1264,44 +1264,44 @@
         <v>20</v>
       </c>
       <c r="M10" s="1">
-        <f>L21*$Y$15</f>
+        <f t="shared" ref="M10:V10" si="29">L21*$Y$15</f>
         <v>-42.95</v>
       </c>
       <c r="N10" s="1">
-        <f>M21*$Y$15</f>
-        <v>-15.54657440000001</v>
+        <f t="shared" si="29"/>
+        <v>-15.77126240000001</v>
       </c>
       <c r="O10" s="1">
-        <f>N21*$Y$15</f>
-        <v>13.277338065599988</v>
+        <f t="shared" si="29"/>
+        <v>12.582827457599979</v>
       </c>
       <c r="P10" s="1">
-        <f>O21*$Y$15</f>
-        <v>43.578790715009575</v>
+        <f t="shared" si="29"/>
+        <v>42.147599830481553</v>
       </c>
       <c r="Q10" s="1">
-        <f>P21*$Y$15</f>
-        <v>75.416949289278307</v>
+        <f t="shared" si="29"/>
+        <v>72.959152917627819</v>
       </c>
       <c r="R10" s="1">
-        <f>Q21*$Y$15</f>
-        <v>108.85316766305259</v>
+        <f t="shared" si="29"/>
+        <v>105.05435721120244</v>
       </c>
       <c r="S10" s="1">
-        <f>R21*$Y$15</f>
-        <v>143.95106623070635</v>
+        <f t="shared" si="29"/>
+        <v>138.47085903920001</v>
       </c>
       <c r="T10" s="1">
-        <f>S21*$Y$15</f>
-        <v>180.77661306177484</v>
+        <f t="shared" si="29"/>
+        <v>173.24708323111506</v>
       </c>
       <c r="U10" s="1">
-        <f>T21*$Y$15</f>
-        <v>219.3982079229086</v>
+        <f t="shared" si="29"/>
+        <v>209.42223483491281</v>
       </c>
       <c r="V10" s="1">
-        <f>U21*$Y$15</f>
-        <v>259.88676926696633</v>
+        <f t="shared" si="29"/>
+        <v>247.03629980941813</v>
       </c>
     </row>
     <row r="11" spans="1:115" x14ac:dyDescent="0.2">
@@ -1322,43 +1322,43 @@
       </c>
       <c r="M11" s="1">
         <f>M9+M10</f>
-        <v>1712.7140999999995</v>
+        <v>1698.6710999999993</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" ref="N11:Q11" si="29">N9+N10</f>
-        <v>1801.4945290999997</v>
+        <f t="shared" ref="N11:Q11" si="30">N9+N10</f>
+        <v>1772.1306160999993</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="29"/>
-        <v>1893.840790588099</v>
+        <f t="shared" si="30"/>
+        <v>1847.7982733050983</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="29"/>
-        <v>1989.8849108917959</v>
+        <f t="shared" si="30"/>
+        <v>1925.722067946642</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="29"/>
-        <v>2089.7636483608926</v>
+        <f t="shared" si="30"/>
+        <v>2005.9502683484138</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" ref="R11:V11" si="30">R9+R10</f>
-        <v>2193.6186604783584</v>
+        <f t="shared" ref="R11:V11" si="31">R9+R10</f>
+        <v>2088.5313642498472</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="30"/>
-        <v>2301.596676941781</v>
+        <f t="shared" si="31"/>
+        <v>2173.5140119946914</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" si="30"/>
-        <v>2413.8496788208581</v>
+        <f t="shared" si="31"/>
+        <v>2260.9469752373602</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="30"/>
-        <v>2530.5350840036076</v>
+        <f t="shared" si="31"/>
+        <v>2350.8790609065823</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="30"/>
-        <v>2651.8159391513391</v>
+        <f t="shared" si="31"/>
+        <v>2443.3590501526101</v>
       </c>
     </row>
     <row r="12" spans="1:115" x14ac:dyDescent="0.2">
@@ -1376,43 +1376,43 @@
       </c>
       <c r="M12" s="1">
         <f>M11*0.2</f>
-        <v>342.54281999999989</v>
+        <v>339.73421999999988</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" ref="N12:Q12" si="31">N11*0.2</f>
-        <v>360.29890581999996</v>
+        <f t="shared" ref="N12:Q12" si="32">N11*0.2</f>
+        <v>354.42612321999991</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="31"/>
-        <v>378.76815811761981</v>
+        <f t="shared" si="32"/>
+        <v>369.55965466101969</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="31"/>
-        <v>397.97698217835921</v>
+        <f t="shared" si="32"/>
+        <v>385.14441358932845</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="31"/>
-        <v>417.95272967217852</v>
+        <f t="shared" si="32"/>
+        <v>401.19005366968281</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" ref="R12:V12" si="32">R11*0.2</f>
-        <v>438.72373209567172</v>
+        <f t="shared" ref="R12:V12" si="33">R11*0.2</f>
+        <v>417.70627284996948</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="32"/>
-        <v>460.31933538835619</v>
+        <f t="shared" si="33"/>
+        <v>434.70280239893827</v>
       </c>
       <c r="T12" s="1">
-        <f t="shared" si="32"/>
-        <v>482.76993576417163</v>
+        <f t="shared" si="33"/>
+        <v>452.18939504747209</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="32"/>
-        <v>506.10701680072157</v>
+        <f t="shared" si="33"/>
+        <v>470.17581218131647</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" si="32"/>
-        <v>530.36318783026786</v>
+        <f t="shared" si="33"/>
+        <v>488.67181003052201</v>
       </c>
     </row>
     <row r="13" spans="1:115" x14ac:dyDescent="0.2">
@@ -1433,415 +1433,415 @@
       </c>
       <c r="M13" s="1">
         <f>M11-M12</f>
-        <v>1370.1712799999996</v>
+        <v>1358.9368799999995</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" ref="N13:Q13" si="33">N11-N12</f>
-        <v>1441.1956232799998</v>
+        <f t="shared" ref="N13:Q13" si="34">N11-N12</f>
+        <v>1417.7044928799994</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="33"/>
-        <v>1515.0726324704792</v>
+        <f t="shared" si="34"/>
+        <v>1478.2386186440785</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="33"/>
-        <v>1591.9079287134368</v>
+        <f t="shared" si="34"/>
+        <v>1540.5776543573136</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="33"/>
-        <v>1671.8109186887141</v>
+        <f t="shared" si="34"/>
+        <v>1604.760214678731</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" ref="R13:V13" si="34">R11-R12</f>
-        <v>1754.8949283826867</v>
+        <f t="shared" ref="R13:V13" si="35">R11-R12</f>
+        <v>1670.8250913998777</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="34"/>
-        <v>1841.2773415534248</v>
+        <f t="shared" si="35"/>
+        <v>1738.8112095957531</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" si="34"/>
-        <v>1931.0797430566865</v>
+        <f t="shared" si="35"/>
+        <v>1808.7575801898881</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="34"/>
-        <v>2024.428067202886</v>
+        <f t="shared" si="35"/>
+        <v>1880.7032487252659</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" si="34"/>
-        <v>2121.4527513210714</v>
+        <f t="shared" si="35"/>
+        <v>1954.687240122088</v>
       </c>
       <c r="W13" s="1">
-        <f>V13*(1+$Y$16)</f>
-        <v>2142.6672788342821</v>
+        <f t="shared" ref="W13:BB13" si="36">V13*(1+$Y$16)</f>
+        <v>1974.234112523309</v>
       </c>
       <c r="X13" s="1">
-        <f>W13*(1+$Y$16)</f>
-        <v>2164.0939516226249</v>
+        <f t="shared" si="36"/>
+        <v>1993.976453648542</v>
       </c>
       <c r="Y13" s="1">
-        <f>X13*(1+$Y$16)</f>
-        <v>2185.7348911388513</v>
+        <f t="shared" si="36"/>
+        <v>2013.9162181850274</v>
       </c>
       <c r="Z13" s="1">
-        <f>Y13*(1+$Y$16)</f>
-        <v>2207.59224005024</v>
+        <f t="shared" si="36"/>
+        <v>2034.0553803668777</v>
       </c>
       <c r="AA13" s="1">
-        <f>Z13*(1+$Y$16)</f>
-        <v>2229.6681624507423</v>
+        <f t="shared" si="36"/>
+        <v>2054.3959341705463</v>
       </c>
       <c r="AB13" s="1">
-        <f>AA13*(1+$Y$16)</f>
-        <v>2251.9648440752499</v>
+        <f t="shared" si="36"/>
+        <v>2074.9398935122517</v>
       </c>
       <c r="AC13" s="1">
-        <f>AB13*(1+$Y$16)</f>
-        <v>2274.4844925160023</v>
+        <f t="shared" si="36"/>
+        <v>2095.6892924473741</v>
       </c>
       <c r="AD13" s="1">
-        <f>AC13*(1+$Y$16)</f>
-        <v>2297.2293374411624</v>
+        <f t="shared" si="36"/>
+        <v>2116.6461853718479</v>
       </c>
       <c r="AE13" s="1">
-        <f>AD13*(1+$Y$16)</f>
-        <v>2320.2016308155739</v>
+        <f t="shared" si="36"/>
+        <v>2137.8126472255663</v>
       </c>
       <c r="AF13" s="1">
-        <f>AE13*(1+$Y$16)</f>
-        <v>2343.4036471237296</v>
+        <f t="shared" si="36"/>
+        <v>2159.1907736978219</v>
       </c>
       <c r="AG13" s="1">
-        <f>AF13*(1+$Y$16)</f>
-        <v>2366.8376835949671</v>
+        <f t="shared" si="36"/>
+        <v>2180.7826814348</v>
       </c>
       <c r="AH13" s="1">
-        <f>AG13*(1+$Y$16)</f>
-        <v>2390.5060604309169</v>
+        <f t="shared" si="36"/>
+        <v>2202.5905082491481</v>
       </c>
       <c r="AI13" s="1">
-        <f>AH13*(1+$Y$16)</f>
-        <v>2414.4111210352262</v>
+        <f t="shared" si="36"/>
+        <v>2224.6164133316397</v>
       </c>
       <c r="AJ13" s="1">
-        <f>AI13*(1+$Y$16)</f>
-        <v>2438.5552322455783</v>
+        <f t="shared" si="36"/>
+        <v>2246.8625774649563</v>
       </c>
       <c r="AK13" s="1">
-        <f>AJ13*(1+$Y$16)</f>
-        <v>2462.9407845680339</v>
+        <f t="shared" si="36"/>
+        <v>2269.3312032396061</v>
       </c>
       <c r="AL13" s="1">
-        <f>AK13*(1+$Y$16)</f>
-        <v>2487.5701924137143</v>
+        <f t="shared" si="36"/>
+        <v>2292.0245152720022</v>
       </c>
       <c r="AM13" s="1">
-        <f>AL13*(1+$Y$16)</f>
-        <v>2512.4458943378513</v>
+        <f t="shared" si="36"/>
+        <v>2314.9447604247221</v>
       </c>
       <c r="AN13" s="1">
-        <f>AM13*(1+$Y$16)</f>
-        <v>2537.5703532812299</v>
+        <f t="shared" si="36"/>
+        <v>2338.0942080289692</v>
       </c>
       <c r="AO13" s="1">
-        <f>AN13*(1+$Y$16)</f>
-        <v>2562.9460568140421</v>
+        <f t="shared" si="36"/>
+        <v>2361.4751501092587</v>
       </c>
       <c r="AP13" s="1">
-        <f>AO13*(1+$Y$16)</f>
-        <v>2588.5755173821826</v>
+        <f t="shared" si="36"/>
+        <v>2385.0899016103513</v>
       </c>
       <c r="AQ13" s="1">
-        <f>AP13*(1+$Y$16)</f>
-        <v>2614.4612725560046</v>
+        <f t="shared" si="36"/>
+        <v>2408.9408006264548</v>
       </c>
       <c r="AR13" s="1">
-        <f>AQ13*(1+$Y$16)</f>
-        <v>2640.6058852815645</v>
+        <f t="shared" si="36"/>
+        <v>2433.0302086327192</v>
       </c>
       <c r="AS13" s="1">
-        <f>AR13*(1+$Y$16)</f>
-        <v>2667.01194413438</v>
+        <f t="shared" si="36"/>
+        <v>2457.3605107190465</v>
       </c>
       <c r="AT13" s="1">
-        <f>AS13*(1+$Y$16)</f>
-        <v>2693.682063575724</v>
+        <f t="shared" si="36"/>
+        <v>2481.9341158262368</v>
       </c>
       <c r="AU13" s="1">
-        <f>AT13*(1+$Y$16)</f>
-        <v>2720.6188842114811</v>
+        <f t="shared" si="36"/>
+        <v>2506.7534569844993</v>
       </c>
       <c r="AV13" s="1">
-        <f>AU13*(1+$Y$16)</f>
-        <v>2747.825073053596</v>
+        <f t="shared" si="36"/>
+        <v>2531.8209915543443</v>
       </c>
       <c r="AW13" s="1">
-        <f>AV13*(1+$Y$16)</f>
-        <v>2775.3033237841319</v>
+        <f t="shared" si="36"/>
+        <v>2557.1392014698877</v>
       </c>
       <c r="AX13" s="1">
-        <f>AW13*(1+$Y$16)</f>
-        <v>2803.0563570219733</v>
+        <f t="shared" si="36"/>
+        <v>2582.7105934845868</v>
       </c>
       <c r="AY13" s="1">
-        <f>AX13*(1+$Y$16)</f>
-        <v>2831.0869205921931</v>
+        <f t="shared" si="36"/>
+        <v>2608.5376994194326</v>
       </c>
       <c r="AZ13" s="1">
-        <f>AY13*(1+$Y$16)</f>
-        <v>2859.3977897981149</v>
+        <f t="shared" si="36"/>
+        <v>2634.6230764136271</v>
       </c>
       <c r="BA13" s="1">
-        <f>AZ13*(1+$Y$16)</f>
-        <v>2887.9917676960958</v>
+        <f t="shared" si="36"/>
+        <v>2660.9693071777633</v>
       </c>
       <c r="BB13" s="1">
-        <f>BA13*(1+$Y$16)</f>
-        <v>2916.8716853730566</v>
+        <f t="shared" si="36"/>
+        <v>2687.579000249541</v>
       </c>
       <c r="BC13" s="1">
-        <f>BB13*(1+$Y$16)</f>
-        <v>2946.0404022267871</v>
+        <f t="shared" ref="BC13:CH13" si="37">BB13*(1+$Y$16)</f>
+        <v>2714.4547902520362</v>
       </c>
       <c r="BD13" s="1">
-        <f>BC13*(1+$Y$16)</f>
-        <v>2975.5008062490551</v>
+        <f t="shared" si="37"/>
+        <v>2741.5993381545568</v>
       </c>
       <c r="BE13" s="1">
-        <f>BD13*(1+$Y$16)</f>
-        <v>3005.2558143115457</v>
+        <f t="shared" si="37"/>
+        <v>2769.0153315361022</v>
       </c>
       <c r="BF13" s="1">
-        <f>BE13*(1+$Y$16)</f>
-        <v>3035.3083724546614</v>
+        <f t="shared" si="37"/>
+        <v>2796.7054848514631</v>
       </c>
       <c r="BG13" s="1">
-        <f>BF13*(1+$Y$16)</f>
-        <v>3065.661456179208</v>
+        <f t="shared" si="37"/>
+        <v>2824.6725396999777</v>
       </c>
       <c r="BH13" s="1">
-        <f>BG13*(1+$Y$16)</f>
-        <v>3096.3180707410002</v>
+        <f t="shared" si="37"/>
+        <v>2852.9192650969776</v>
       </c>
       <c r="BI13" s="1">
-        <f>BH13*(1+$Y$16)</f>
-        <v>3127.2812514484103</v>
+        <f t="shared" si="37"/>
+        <v>2881.4484577479475</v>
       </c>
       <c r="BJ13" s="1">
-        <f>BI13*(1+$Y$16)</f>
-        <v>3158.5540639628944</v>
+        <f t="shared" si="37"/>
+        <v>2910.262942325427</v>
       </c>
       <c r="BK13" s="1">
-        <f>BJ13*(1+$Y$16)</f>
-        <v>3190.1396046025234</v>
+        <f t="shared" si="37"/>
+        <v>2939.3655717486813</v>
       </c>
       <c r="BL13" s="1">
-        <f>BK13*(1+$Y$16)</f>
-        <v>3222.0410006485486</v>
+        <f t="shared" si="37"/>
+        <v>2968.7592274661683</v>
       </c>
       <c r="BM13" s="1">
-        <f>BL13*(1+$Y$16)</f>
-        <v>3254.2614106550341</v>
+        <f t="shared" si="37"/>
+        <v>2998.4468197408301</v>
       </c>
       <c r="BN13" s="1">
-        <f>BM13*(1+$Y$16)</f>
-        <v>3286.8040247615845</v>
+        <f t="shared" si="37"/>
+        <v>3028.4312879382383</v>
       </c>
       <c r="BO13" s="1">
-        <f>BN13*(1+$Y$16)</f>
-        <v>3319.6720650092002</v>
+        <f t="shared" si="37"/>
+        <v>3058.7156008176207</v>
       </c>
       <c r="BP13" s="1">
-        <f>BO13*(1+$Y$16)</f>
-        <v>3352.8687856592924</v>
+        <f t="shared" si="37"/>
+        <v>3089.3027568257971</v>
       </c>
       <c r="BQ13" s="1">
-        <f>BP13*(1+$Y$16)</f>
-        <v>3386.3974735158854</v>
+        <f t="shared" si="37"/>
+        <v>3120.195784394055</v>
       </c>
       <c r="BR13" s="1">
-        <f>BQ13*(1+$Y$16)</f>
-        <v>3420.2614482510444</v>
+        <f t="shared" si="37"/>
+        <v>3151.3977422379953</v>
       </c>
       <c r="BS13" s="1">
-        <f>BR13*(1+$Y$16)</f>
-        <v>3454.4640627335548</v>
+        <f t="shared" si="37"/>
+        <v>3182.9117196603752</v>
       </c>
       <c r="BT13" s="1">
-        <f>BS13*(1+$Y$16)</f>
-        <v>3489.0087033608902</v>
+        <f t="shared" si="37"/>
+        <v>3214.7408368569791</v>
       </c>
       <c r="BU13" s="1">
-        <f>BT13*(1+$Y$16)</f>
-        <v>3523.898790394499</v>
+        <f t="shared" si="37"/>
+        <v>3246.8882452255489</v>
       </c>
       <c r="BV13" s="1">
-        <f>BU13*(1+$Y$16)</f>
-        <v>3559.1377782984441</v>
+        <f t="shared" si="37"/>
+        <v>3279.3571276778043</v>
       </c>
       <c r="BW13" s="1">
-        <f>BV13*(1+$Y$16)</f>
-        <v>3594.7291560814288</v>
+        <f t="shared" si="37"/>
+        <v>3312.1506989545824</v>
       </c>
       <c r="BX13" s="1">
-        <f>BW13*(1+$Y$16)</f>
-        <v>3630.6764476422431</v>
+        <f t="shared" si="37"/>
+        <v>3345.272205944128</v>
       </c>
       <c r="BY13" s="1">
-        <f>BX13*(1+$Y$16)</f>
-        <v>3666.9832121186655</v>
+        <f t="shared" si="37"/>
+        <v>3378.7249280035694</v>
       </c>
       <c r="BZ13" s="1">
-        <f>BY13*(1+$Y$16)</f>
-        <v>3703.6530442398521</v>
+        <f t="shared" si="37"/>
+        <v>3412.5121772836051</v>
       </c>
       <c r="CA13" s="1">
-        <f>BZ13*(1+$Y$16)</f>
-        <v>3740.6895746822506</v>
+        <f t="shared" si="37"/>
+        <v>3446.637299056441</v>
       </c>
       <c r="CB13" s="1">
-        <f>CA13*(1+$Y$16)</f>
-        <v>3778.0964704290732</v>
+        <f t="shared" si="37"/>
+        <v>3481.1036720470056</v>
       </c>
       <c r="CC13" s="1">
-        <f>CB13*(1+$Y$16)</f>
-        <v>3815.8774351333641</v>
+        <f t="shared" si="37"/>
+        <v>3515.9147087674755</v>
       </c>
       <c r="CD13" s="1">
-        <f>CC13*(1+$Y$16)</f>
-        <v>3854.0362094846978</v>
+        <f t="shared" si="37"/>
+        <v>3551.0738558551502</v>
       </c>
       <c r="CE13" s="1">
-        <f>CD13*(1+$Y$16)</f>
-        <v>3892.5765715795446</v>
+        <f t="shared" si="37"/>
+        <v>3586.5845944137018</v>
       </c>
       <c r="CF13" s="1">
-        <f>CE13*(1+$Y$16)</f>
-        <v>3931.5023372953401</v>
+        <f t="shared" si="37"/>
+        <v>3622.4504403578389</v>
       </c>
       <c r="CG13" s="1">
-        <f>CF13*(1+$Y$16)</f>
-        <v>3970.8173606682935</v>
+        <f t="shared" si="37"/>
+        <v>3658.6749447614175</v>
       </c>
       <c r="CH13" s="1">
-        <f>CG13*(1+$Y$16)</f>
-        <v>4010.5255342749765</v>
+        <f t="shared" si="37"/>
+        <v>3695.2616942090317</v>
       </c>
       <c r="CI13" s="1">
-        <f>CH13*(1+$Y$16)</f>
-        <v>4050.6307896177264</v>
+        <f t="shared" ref="CI13:DK13" si="38">CH13*(1+$Y$16)</f>
+        <v>3732.2143111511223</v>
       </c>
       <c r="CJ13" s="1">
-        <f>CI13*(1+$Y$16)</f>
-        <v>4091.1370975139034</v>
+        <f t="shared" si="38"/>
+        <v>3769.5364542626335</v>
       </c>
       <c r="CK13" s="1">
-        <f>CJ13*(1+$Y$16)</f>
-        <v>4132.0484684890425</v>
+        <f t="shared" si="38"/>
+        <v>3807.23181880526</v>
       </c>
       <c r="CL13" s="1">
-        <f>CK13*(1+$Y$16)</f>
-        <v>4173.3689531739328</v>
+        <f t="shared" si="38"/>
+        <v>3845.3041369933126</v>
       </c>
       <c r="CM13" s="1">
-        <f>CL13*(1+$Y$16)</f>
-        <v>4215.1026427056722</v>
+        <f t="shared" si="38"/>
+        <v>3883.7571783632457</v>
       </c>
       <c r="CN13" s="1">
-        <f>CM13*(1+$Y$16)</f>
-        <v>4257.2536691327286</v>
+        <f t="shared" si="38"/>
+        <v>3922.5947501468781</v>
       </c>
       <c r="CO13" s="1">
-        <f>CN13*(1+$Y$16)</f>
-        <v>4299.8262058240562</v>
+        <f t="shared" si="38"/>
+        <v>3961.820697648347</v>
       </c>
       <c r="CP13" s="1">
-        <f>CO13*(1+$Y$16)</f>
-        <v>4342.8244678822966</v>
+        <f t="shared" si="38"/>
+        <v>4001.4389046248307</v>
       </c>
       <c r="CQ13" s="1">
-        <f>CP13*(1+$Y$16)</f>
-        <v>4386.2527125611196</v>
+        <f t="shared" si="38"/>
+        <v>4041.4532936710789</v>
       </c>
       <c r="CR13" s="1">
-        <f>CQ13*(1+$Y$16)</f>
-        <v>4430.115239686731</v>
+        <f t="shared" si="38"/>
+        <v>4081.8678266077895</v>
       </c>
       <c r="CS13" s="1">
-        <f>CR13*(1+$Y$16)</f>
-        <v>4474.4163920835981</v>
+        <f t="shared" si="38"/>
+        <v>4122.6865048738673</v>
       </c>
       <c r="CT13" s="1">
-        <f>CS13*(1+$Y$16)</f>
-        <v>4519.1605560044345</v>
+        <f t="shared" si="38"/>
+        <v>4163.9133699226059</v>
       </c>
       <c r="CU13" s="1">
-        <f>CT13*(1+$Y$16)</f>
-        <v>4564.3521615644786</v>
+        <f t="shared" si="38"/>
+        <v>4205.5525036218323</v>
       </c>
       <c r="CV13" s="1">
-        <f>CU13*(1+$Y$16)</f>
-        <v>4609.9956831801237</v>
+        <f t="shared" si="38"/>
+        <v>4247.6080286580509</v>
       </c>
       <c r="CW13" s="1">
-        <f>CV13*(1+$Y$16)</f>
-        <v>4656.0956400119248</v>
+        <f t="shared" si="38"/>
+        <v>4290.0841089446312</v>
       </c>
       <c r="CX13" s="1">
-        <f>CW13*(1+$Y$16)</f>
-        <v>4702.6565964120446</v>
+        <f t="shared" si="38"/>
+        <v>4332.9849500340779</v>
       </c>
       <c r="CY13" s="1">
-        <f>CX13*(1+$Y$16)</f>
-        <v>4749.6831623761655</v>
+        <f t="shared" si="38"/>
+        <v>4376.3147995344189</v>
       </c>
       <c r="CZ13" s="1">
-        <f>CY13*(1+$Y$16)</f>
-        <v>4797.1799939999273</v>
+        <f t="shared" si="38"/>
+        <v>4420.0779475297632</v>
       </c>
       <c r="DA13" s="1">
-        <f>CZ13*(1+$Y$16)</f>
-        <v>4845.1517939399264</v>
+        <f t="shared" si="38"/>
+        <v>4464.2787270050612</v>
       </c>
       <c r="DB13" s="1">
-        <f>DA13*(1+$Y$16)</f>
-        <v>4893.6033118793257</v>
+        <f t="shared" si="38"/>
+        <v>4508.9215142751118</v>
       </c>
       <c r="DC13" s="1">
-        <f>DB13*(1+$Y$16)</f>
-        <v>4942.5393449981193</v>
+        <f t="shared" si="38"/>
+        <v>4554.0107294178633</v>
       </c>
       <c r="DD13" s="1">
-        <f>DC13*(1+$Y$16)</f>
-        <v>4991.9647384481004</v>
+        <f t="shared" si="38"/>
+        <v>4599.5508367120419</v>
       </c>
       <c r="DE13" s="1">
-        <f>DD13*(1+$Y$16)</f>
-        <v>5041.8843858325818</v>
+        <f t="shared" si="38"/>
+        <v>4645.5463450791622</v>
       </c>
       <c r="DF13" s="1">
-        <f>DE13*(1+$Y$16)</f>
-        <v>5092.3032296909078</v>
+        <f t="shared" si="38"/>
+        <v>4692.0018085299535</v>
       </c>
       <c r="DG13" s="1">
-        <f>DF13*(1+$Y$16)</f>
-        <v>5143.2262619878165</v>
+        <f t="shared" si="38"/>
+        <v>4738.9218266152529</v>
       </c>
       <c r="DH13" s="1">
-        <f>DG13*(1+$Y$16)</f>
-        <v>5194.6585246076947</v>
+        <f t="shared" si="38"/>
+        <v>4786.3110448814059</v>
       </c>
       <c r="DI13" s="1">
-        <f>DH13*(1+$Y$16)</f>
-        <v>5246.6051098537719</v>
+        <f t="shared" si="38"/>
+        <v>4834.1741553302199</v>
       </c>
       <c r="DJ13" s="1">
-        <f>DI13*(1+$Y$16)</f>
-        <v>5299.0711609523096</v>
+        <f t="shared" si="38"/>
+        <v>4882.5158968835221</v>
       </c>
       <c r="DK13" s="1">
-        <f>DJ13*(1+$Y$16)</f>
-        <v>5352.0618725618324</v>
+        <f t="shared" si="38"/>
+        <v>4931.3410558523574</v>
       </c>
     </row>
     <row r="14" spans="1:115" x14ac:dyDescent="0.2">
@@ -1861,39 +1861,39 @@
         <v>45</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" ref="N14:Q14" si="35">M14</f>
+        <f t="shared" ref="N14:Q14" si="39">M14</f>
         <v>45</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>45</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>45</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>45</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" ref="R14" si="36">Q14</f>
+        <f t="shared" ref="R14" si="40">Q14</f>
         <v>45</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" ref="S14" si="37">R14</f>
+        <f t="shared" ref="S14" si="41">R14</f>
         <v>45</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" ref="T14" si="38">S14</f>
+        <f t="shared" ref="T14" si="42">S14</f>
         <v>45</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" ref="U14" si="39">T14</f>
+        <f t="shared" ref="U14" si="43">T14</f>
         <v>45</v>
       </c>
       <c r="V14" s="1">
-        <f t="shared" ref="V14" si="40">U14</f>
+        <f t="shared" ref="V14" si="44">U14</f>
         <v>45</v>
       </c>
     </row>
@@ -1915,43 +1915,43 @@
       </c>
       <c r="M15" s="2">
         <f>M13/M14</f>
-        <v>30.448250666666656</v>
+        <v>30.198597333333321</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" ref="N15:Q15" si="41">N13/N14</f>
-        <v>32.026569406222215</v>
+        <f t="shared" ref="N15:Q15" si="45">N13/N14</f>
+        <v>31.50454428622221</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="41"/>
-        <v>33.668280721566205</v>
+        <f t="shared" si="45"/>
+        <v>32.849747080979526</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="41"/>
-        <v>35.375731749187487</v>
+        <f t="shared" si="45"/>
+        <v>34.235058985718076</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="41"/>
-        <v>37.151353748638094</v>
+        <f t="shared" si="45"/>
+        <v>35.661338103971801</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" ref="R15:V15" si="42">R13/R14</f>
-        <v>38.997665075170815</v>
+        <f t="shared" ref="R15:V15" si="46">R13/R14</f>
+        <v>37.12944647555284</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="42"/>
-        <v>40.917274256742772</v>
+        <f t="shared" si="46"/>
+        <v>38.640249102127846</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="42"/>
-        <v>42.912883179037479</v>
+        <f t="shared" si="46"/>
+        <v>40.194612893108626</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="42"/>
-        <v>44.987290382286353</v>
+        <f t="shared" si="46"/>
+        <v>41.793405527228131</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="42"/>
-        <v>47.143394473801585</v>
+        <f t="shared" si="46"/>
+        <v>43.437494224935293</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>49</v>
@@ -1982,43 +1982,43 @@
         <v>7.9724822214093383E-3</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" ref="M17:Q17" si="43">M3/L3-1</f>
+        <f t="shared" ref="M17:Q17" si="47">M3/L3-1</f>
         <v>3.499999999999992E-2</v>
       </c>
       <c r="N17" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3.499999999999992E-2</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3.499999999999992E-2</v>
       </c>
       <c r="P17" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3.499999999999992E-2</v>
       </c>
       <c r="Q17" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3.499999999999992E-2</v>
       </c>
       <c r="R17" s="7">
-        <f t="shared" ref="R17" si="44">R3/Q3-1</f>
+        <f t="shared" ref="R17" si="48">R3/Q3-1</f>
         <v>3.499999999999992E-2</v>
       </c>
       <c r="S17" s="7">
-        <f t="shared" ref="S17" si="45">S3/R3-1</f>
+        <f t="shared" ref="S17" si="49">S3/R3-1</f>
         <v>3.499999999999992E-2</v>
       </c>
       <c r="T17" s="7">
-        <f t="shared" ref="T17" si="46">T3/S3-1</f>
+        <f t="shared" ref="T17" si="50">T3/S3-1</f>
         <v>3.499999999999992E-2</v>
       </c>
       <c r="U17" s="7">
-        <f t="shared" ref="U17" si="47">U3/T3-1</f>
+        <f t="shared" ref="U17" si="51">U3/T3-1</f>
         <v>3.499999999999992E-2</v>
       </c>
       <c r="V17" s="7">
-        <f t="shared" ref="V17" si="48">V3/U3-1</f>
+        <f t="shared" ref="V17" si="52">V3/U3-1</f>
         <v>3.499999999999992E-2</v>
       </c>
       <c r="X17" s="1" t="s">
@@ -2037,11 +2037,11 @@
         <v>0.39619536469251415</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" ref="K18:L18" si="49">K5/K3</f>
+        <f t="shared" ref="K18:L18" si="53">K5/K3</f>
         <v>0.39091485014231792</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.38845586966047457</v>
       </c>
       <c r="M18" s="6">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="Y18" s="1">
         <f>NPV(Y17,M13:XFD13)+Main!J6-Main!J7</f>
-        <v>24046.171090336764</v>
+        <v>22462.690087945281</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
@@ -2096,57 +2096,57 @@
         <v>4.2306835894010186E-2</v>
       </c>
       <c r="M19" s="6">
-        <f t="shared" ref="M19:Q19" si="50">M6/L6-1</f>
-        <v>3.499999999999992E-2</v>
+        <f t="shared" ref="M19:Q19" si="54">M6/L6-1</f>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="50"/>
-        <v>3.499999999999992E-2</v>
+        <f t="shared" si="54"/>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="O19" s="6">
-        <f t="shared" si="50"/>
-        <v>3.499999999999992E-2</v>
+        <f t="shared" si="54"/>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="50"/>
-        <v>3.499999999999992E-2</v>
+        <f t="shared" si="54"/>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="Q19" s="6">
-        <f t="shared" si="50"/>
-        <v>3.499999999999992E-2</v>
+        <f t="shared" si="54"/>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="R19" s="6">
-        <f t="shared" ref="R19" si="51">R6/Q6-1</f>
-        <v>3.499999999999992E-2</v>
+        <f t="shared" ref="R19" si="55">R6/Q6-1</f>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="S19" s="6">
-        <f t="shared" ref="S19" si="52">S6/R6-1</f>
-        <v>3.499999999999992E-2</v>
+        <f t="shared" ref="S19" si="56">S6/R6-1</f>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="T19" s="6">
-        <f t="shared" ref="T19" si="53">T6/S6-1</f>
-        <v>3.499999999999992E-2</v>
+        <f t="shared" ref="T19" si="57">T6/S6-1</f>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="U19" s="6">
-        <f t="shared" ref="U19" si="54">U6/T6-1</f>
-        <v>3.499999999999992E-2</v>
+        <f t="shared" ref="U19" si="58">U6/T6-1</f>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="V19" s="6">
-        <f t="shared" ref="V19" si="55">V6/U6-1</f>
-        <v>3.499999999999992E-2</v>
+        <f t="shared" ref="V19" si="59">V6/U6-1</f>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>53</v>
       </c>
       <c r="Y19" s="2">
         <f>Y18/Main!J4</f>
-        <v>535.0061205176205</v>
+        <v>499.77506336427325</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="Y20" s="6">
         <f>Y19/Main!J3-1</f>
-        <v>0.14562338440603972</v>
+        <v>7.0182148531634292E-2</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
@@ -2167,43 +2167,43 @@
       </c>
       <c r="M21" s="1">
         <f>L21+M13</f>
-        <v>-777.32872000000043</v>
+        <v>-788.56312000000048</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" ref="N21:Q21" si="56">M21+N13</f>
-        <v>663.86690327999941</v>
+        <f t="shared" ref="N21:Q21" si="60">M21+N13</f>
+        <v>629.14137287999893</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="56"/>
-        <v>2178.9395357504786</v>
+        <f t="shared" si="60"/>
+        <v>2107.3799915240775</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="56"/>
-        <v>3770.8474644639155</v>
+        <f t="shared" si="60"/>
+        <v>3647.9576458813908</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="56"/>
-        <v>5442.6583831526295</v>
+        <f t="shared" si="60"/>
+        <v>5252.7178605601221</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" ref="R21" si="57">Q21+R13</f>
-        <v>7197.5533115353164</v>
+        <f t="shared" ref="R21" si="61">Q21+R13</f>
+        <v>6923.5429519600002</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" ref="S21" si="58">R21+S13</f>
-        <v>9038.8306530887421</v>
+        <f t="shared" ref="S21" si="62">R21+S13</f>
+        <v>8662.3541615557533</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" ref="T21" si="59">S21+T13</f>
-        <v>10969.910396145429</v>
+        <f t="shared" ref="T21" si="63">S21+T13</f>
+        <v>10471.111741745641</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" ref="U21" si="60">T21+U13</f>
-        <v>12994.338463348315</v>
+        <f t="shared" ref="U21" si="64">T21+U13</f>
+        <v>12351.814990470906</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" ref="V21" si="61">U21+V13</f>
-        <v>15115.791214669385</v>
+        <f t="shared" ref="V21" si="65">U21+V13</f>
+        <v>14306.502230592994</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
